--- a/RUDN/Importance/Varible_f_reg_in_Western Africa.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Western Africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>F-value</t>
   </si>
@@ -22,6 +22,21 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
@@ -34,105 +49,192 @@
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
+    <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
+    <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
@@ -142,115 +244,172 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
   </si>
   <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
+    <t>Number of people who are undernourished</t>
   </si>
   <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 40-44, male (% of male population)</t>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
   </si>
   <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+    <t>Expected years of schooling, male</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
@@ -259,49 +418,100 @@
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
@@ -310,619 +520,535 @@
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: charcoal (% of households)</t>
+  </si>
+  <si>
+    <t>Female headed households (% of households with a female head)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: electricity  (% of households)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: dung (% of households)</t>
+  </si>
+  <si>
+    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
   </si>
   <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:C344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1299,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1608.245922328993</v>
+        <v>11054.71240745311</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1310,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1121.060395907141</v>
+        <v>9662.696275341994</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1321,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1121.060395907141</v>
+        <v>2826.604118437058</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1332,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>417.9903202465491</v>
+        <v>1844.776255420012</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1343,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>331.4590312520316</v>
+        <v>1771.494366362308</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1354,7 +1480,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>322.7538803302769</v>
+        <v>1531.092962502536</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1365,7 +1491,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>277.8213820438467</v>
+        <v>1076.729353631914</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1376,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>269.6859137188292</v>
+        <v>1076.729353631914</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1387,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>262.9448602217344</v>
+        <v>383.5394805285017</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1398,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>259.0795348829393</v>
+        <v>378.914748368577</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1409,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>237.2900494501921</v>
+        <v>323.7927468579639</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1420,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>208.795650635673</v>
+        <v>309.2779615669774</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1431,7 +1557,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>159.086497356966</v>
+        <v>289.870718606002</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1442,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>146.1257155311018</v>
+        <v>271.1610997711873</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1453,7 +1579,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>145.7349318603854</v>
+        <v>269.0835444607216</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1464,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>143.2349089250655</v>
+        <v>262.5470436174312</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1475,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>143.1980664260709</v>
+        <v>261.4709564419271</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1486,7 +1612,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>128.4575022976207</v>
+        <v>255.0235872701774</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1497,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>128.356505106119</v>
+        <v>234.5544207806345</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1508,7 +1634,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>125.4870928224965</v>
+        <v>230.7473099043647</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1519,7 +1645,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>125.1311467250697</v>
+        <v>220.6180392397777</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1530,7 +1656,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>121.0004151978303</v>
+        <v>211.9058600138778</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1541,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>116.0451709445021</v>
+        <v>207.27497206049</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1552,7 +1678,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>116.0451709445021</v>
+        <v>204.0218579447713</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1563,7 +1689,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>106.7248046482664</v>
+        <v>192.2804713223574</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1574,7 +1700,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>104.767347063611</v>
+        <v>161.915975104513</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1585,7 +1711,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>104.3533709720404</v>
+        <v>159.922770271022</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1596,7 +1722,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>93.49459228546132</v>
+        <v>158.4460146571729</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1607,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>92.22177106031079</v>
+        <v>157.2149805610665</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1618,7 +1744,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>91.8729619191643</v>
+        <v>152.1562860127373</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1629,7 +1755,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>90.57774320078771</v>
+        <v>150.6301771871827</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1640,7 +1766,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>90.57774320078568</v>
+        <v>146.8980778671604</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1651,7 +1777,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>87.46536773490493</v>
+        <v>144.4219397598131</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1662,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>87.17778720530437</v>
+        <v>144.1074934359273</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1673,7 +1799,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>86.17339174382978</v>
+        <v>135.5320090196088</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1684,7 +1810,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>83.56724730945034</v>
+        <v>134.5885142677827</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1695,7 +1821,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>82.86937915739421</v>
+        <v>131.3162019546806</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1706,7 +1832,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>79.70145302578283</v>
+        <v>127.3215107634044</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1717,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>79.37211815649808</v>
+        <v>126.2276114555778</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1728,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>76.04805000905745</v>
+        <v>125.2836114145115</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1739,7 +1865,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>72.72453653942823</v>
+        <v>119.2716937988553</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1750,7 +1876,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>71.81571355154431</v>
+        <v>119.1729926236299</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1761,7 +1887,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>65.62828747768775</v>
+        <v>118.6822602434639</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1772,7 +1898,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>64.70214729275121</v>
+        <v>117.4613373725848</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1783,7 +1909,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>63.29960427868699</v>
+        <v>117.1506416792429</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1794,7 +1920,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>63.28973333522292</v>
+        <v>110.4594813013546</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1805,7 +1931,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>62.99331455768888</v>
+        <v>110.095043654486</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1816,7 +1942,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>58.57265642962904</v>
+        <v>108.900009398392</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1827,7 +1953,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>57.2922869041095</v>
+        <v>108.6075747418475</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1838,7 +1964,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>56.81771035886059</v>
+        <v>108.6075747418475</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1849,7 +1975,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>55.43800410466459</v>
+        <v>108.5870622653721</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1860,7 +1986,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>55.29804067324469</v>
+        <v>103.6323942007232</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1871,7 +1997,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>54.55456349279261</v>
+        <v>95.87524054578195</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1882,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>54.52753293983469</v>
+        <v>94.77000180022293</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1893,7 +2019,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>54.52753293983469</v>
+        <v>91.19127604771623</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1904,7 +2030,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>54.01328269480352</v>
+        <v>90.04293042309651</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1915,7 +2041,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>53.82796312126426</v>
+        <v>85.56009401694226</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1926,7 +2052,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>53.73905265395121</v>
+        <v>85.56009401694183</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1937,7 +2063,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>53.50927972641708</v>
+        <v>84.87809094249867</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1948,7 +2074,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>52.32189610842994</v>
+        <v>83.12801246174575</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1959,7 +2085,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>50.98958103017821</v>
+        <v>82.41643300571766</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1970,7 +2096,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>48.9836951433566</v>
+        <v>81.59764358323677</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1981,7 +2107,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>48.60949088290761</v>
+        <v>80.98232128044835</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1992,7 +2118,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>48.21626830985623</v>
+        <v>80.77359854934912</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2003,7 +2129,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>48.14492666664394</v>
+        <v>80.40236263825895</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2014,7 +2140,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>48.00506773376876</v>
+        <v>80.16689410143385</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2025,7 +2151,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>47.94453971264456</v>
+        <v>79.08763771747107</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2036,7 +2162,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>45.73988989611888</v>
+        <v>78.53065838656639</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2047,7 +2173,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>44.90466305878971</v>
+        <v>77.60638504575439</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2058,7 +2184,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>44.44321195634285</v>
+        <v>75.57322736119504</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2069,7 +2195,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>42.66716919292578</v>
+        <v>75.03313016385714</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2080,7 +2206,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>42.35809795256136</v>
+        <v>73.74897466603142</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2091,7 +2217,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>42.1716343999075</v>
+        <v>72.24529100292185</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2102,7 +2228,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>42.14980362595426</v>
+        <v>70.9992271849912</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2113,7 +2239,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>39.30229357699882</v>
+        <v>70.96313090714743</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2124,7 +2250,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>38.234528975156</v>
+        <v>70.96313090714743</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2135,7 +2261,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>38.01654109706226</v>
+        <v>68.00616727063536</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2146,7 +2272,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>37.57816463628836</v>
+        <v>67.67375912851095</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2157,7 +2283,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>37.57816463628836</v>
+        <v>67.48072880309854</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2168,7 +2294,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>36.37794464008022</v>
+        <v>66.70236888982494</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2179,7 +2305,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>36.18474441957105</v>
+        <v>66.48933279988263</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2190,7 +2316,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>34.71182399728314</v>
+        <v>66.18294485218699</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2201,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>34.11977616307168</v>
+        <v>65.17568097150243</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2212,7 +2338,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>33.99323815813197</v>
+        <v>64.7751916207111</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2223,7 +2349,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>33.99223383781148</v>
+        <v>63.77651436255878</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2234,7 +2360,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>33.45319688070467</v>
+        <v>59.94113036158918</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2245,7 +2371,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>31.72730865242512</v>
+        <v>59.88606251372344</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2256,7 +2382,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>30.81512490568601</v>
+        <v>58.6008350662121</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2267,7 +2393,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>29.49459082512966</v>
+        <v>56.13365958735139</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2278,7 +2404,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>28.89409644765978</v>
+        <v>56.09885708248121</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2289,7 +2415,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>28.21447460182554</v>
+        <v>55.99983412051695</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2300,7 +2426,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>28.13431354067794</v>
+        <v>55.97048882339681</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2311,7 +2437,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>28.1074646048</v>
+        <v>54.91070099111376</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2322,7 +2448,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>27.62958449531698</v>
+        <v>52.99206644577518</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2333,7 +2459,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>26.95307087604142</v>
+        <v>52.93649639249315</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2344,7 +2470,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>26.65413512021015</v>
+        <v>52.8429596377283</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2355,7 +2481,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>26.60645645643262</v>
+        <v>51.43220238955329</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2366,7 +2492,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>26.44074889513515</v>
+        <v>51.19516262859815</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2377,7 +2503,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>26.33821976261201</v>
+        <v>51.16881456187011</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2388,7 +2514,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>26.19896700813095</v>
+        <v>51.16881456187011</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2399,7 +2525,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>26.18089463852384</v>
+        <v>50.58469286432338</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2410,7 +2536,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>25.96457550634778</v>
+        <v>50.3137206131601</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2421,7 +2547,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>25.91577119136215</v>
+        <v>49.94875429446077</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2432,7 +2558,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>25.77783634395585</v>
+        <v>49.78502775711218</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2443,7 +2569,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>25.74056496287909</v>
+        <v>49.46917636433385</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2454,7 +2580,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>25.69015983699655</v>
+        <v>49.23349425459196</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2465,7 +2591,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>25.68862184149035</v>
+        <v>49.16086437193476</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2476,7 +2602,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>25.51358691484742</v>
+        <v>48.3938163190312</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2487,7 +2613,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>25.50714442739432</v>
+        <v>47.76296892738439</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2498,7 +2624,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>25.46473245201262</v>
+        <v>47.58246603370061</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2509,7 +2635,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>25.4534786270804</v>
+        <v>47.18089356758036</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2520,7 +2646,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>25.31977133093764</v>
+        <v>46.41078006032469</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2531,7 +2657,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>25.27075924508372</v>
+        <v>45.90161341909732</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2542,7 +2668,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>25.11984341826756</v>
+        <v>45.66639208542431</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2553,7 +2679,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>25.07002816332705</v>
+        <v>45.00549889504255</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2564,7 +2690,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>25.06709247807277</v>
+        <v>44.56597128806085</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2575,7 +2701,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>24.94254046189415</v>
+        <v>44.4007301767705</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2586,7 +2712,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>24.93746530440641</v>
+        <v>43.92382588081958</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2597,7 +2723,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>24.86348482145145</v>
+        <v>43.6676816660677</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2608,7 +2734,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>24.82204950608435</v>
+        <v>40.81048996376682</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2619,7 +2745,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>24.81348161459558</v>
+        <v>40.74220387703168</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2630,7 +2756,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>24.78847002378718</v>
+        <v>38.84897917176162</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2641,7 +2767,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>24.68081786687597</v>
+        <v>37.84037259176071</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2652,7 +2778,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>24.65735501838864</v>
+        <v>37.66825975940726</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2663,7 +2789,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>24.55796743730556</v>
+        <v>37.01889578746668</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2674,7 +2800,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>24.5490162828248</v>
+        <v>36.50372455212642</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2685,7 +2811,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>24.52269074841665</v>
+        <v>36.48520246749867</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2696,7 +2822,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>24.46379903130947</v>
+        <v>36.44480801169512</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2707,7 +2833,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>24.46111868190778</v>
+        <v>36.37862121991774</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2718,7 +2844,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>24.45440547308522</v>
+        <v>36.29913934917028</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2729,7 +2855,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>24.44011519434481</v>
+        <v>34.89202981344131</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2740,7 +2866,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>24.43534967326593</v>
+        <v>34.89202981344131</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2751,7 +2877,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>24.41509486194458</v>
+        <v>33.37734985888459</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2762,7 +2888,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>24.4145532494226</v>
+        <v>33.30127906555789</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2773,7 +2899,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>24.4021041001196</v>
+        <v>33.22161124317598</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2784,7 +2910,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>24.39366789210622</v>
+        <v>32.90417759401635</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2795,7 +2921,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>24.38934458993909</v>
+        <v>32.61005787611963</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2806,7 +2932,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>24.38871115729116</v>
+        <v>32.60908932163072</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2817,7 +2943,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>24.38066220844225</v>
+        <v>32.58706629123908</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2828,7 +2954,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>24.37152854088229</v>
+        <v>31.9537814122998</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2839,7 +2965,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>24.36369207719458</v>
+        <v>31.88980097153027</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2850,7 +2976,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>24.35355589613185</v>
+        <v>31.85089649473969</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2861,7 +2987,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>24.34909711907631</v>
+        <v>31.6238023886636</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2872,7 +2998,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>24.34835293903382</v>
+        <v>31.35914746047461</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2883,7 +3009,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>24.28380597284465</v>
+        <v>31.25825035991089</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2894,7 +3020,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>24.27844462756591</v>
+        <v>30.38197945621453</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2905,7 +3031,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>24.27596307854374</v>
+        <v>30.35295416583864</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2916,7 +3042,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>24.1912878043134</v>
+        <v>30.24389843026015</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2927,7 +3053,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>24.16257324688541</v>
+        <v>30.16806779786768</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2938,7 +3064,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>24.1619371134261</v>
+        <v>29.90115706776392</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2949,7 +3075,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>24.15459432854642</v>
+        <v>29.46764612912483</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2960,7 +3086,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>24.12917288148141</v>
+        <v>29.45562724779176</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2971,7 +3097,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>24.12665770265083</v>
+        <v>29.20485587583934</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2982,7 +3108,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>24.12513596555568</v>
+        <v>28.84960800460012</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2993,7 +3119,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>24.12401871040149</v>
+        <v>28.59942890145098</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3004,7 +3130,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>24.11944508389769</v>
+        <v>27.15321997432865</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3015,7 +3141,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>24.11219134019416</v>
+        <v>26.84524197447036</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3026,7 +3152,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>24.11074818865931</v>
+        <v>26.76284115238563</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3037,7 +3163,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>24.11064133538536</v>
+        <v>26.27051635432601</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3048,7 +3174,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>24.1105204593354</v>
+        <v>26.25927747902188</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3059,7 +3185,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>24.1090209468753</v>
+        <v>26.18655585001906</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3070,7 +3196,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>24.10750502603989</v>
+        <v>25.86652475974436</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3081,7 +3207,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>24.10143485618612</v>
+        <v>25.7443091231823</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3092,7 +3218,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>24.09204834471813</v>
+        <v>25.31186099317214</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3103,7 +3229,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>24.08492526622419</v>
+        <v>24.75156410013571</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3114,7 +3240,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>24.08407173064169</v>
+        <v>24.54030812346856</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3125,7 +3251,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>24.07520888817665</v>
+        <v>24.43087569643707</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3136,7 +3262,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>24.06865956233591</v>
+        <v>24.28458535238674</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3147,7 +3273,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>24.06497270230926</v>
+        <v>24.22890498578646</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3158,7 +3284,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>24.0601423195686</v>
+        <v>24.22124482711546</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3169,7 +3295,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>24.04270966339119</v>
+        <v>24.19891891670671</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3180,7 +3306,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>24.02245804284606</v>
+        <v>24.11963924506411</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3191,7 +3317,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>23.99969728441459</v>
+        <v>24.05987382833856</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3202,7 +3328,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>23.95296139859944</v>
+        <v>24.02020450664764</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3213,7 +3339,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>23.86887222317345</v>
+        <v>24.01014541465391</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3224,7 +3350,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>23.81587099381747</v>
+        <v>23.86392327059679</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3235,7 +3361,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>23.81374316448504</v>
+        <v>23.84284709027164</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3246,7 +3372,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>23.64956571393401</v>
+        <v>23.80036757952147</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3257,7 +3383,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>23.63420313536852</v>
+        <v>23.69004692124697</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3268,7 +3394,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>23.59544794925888</v>
+        <v>23.63847532765917</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3279,7 +3405,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>23.56385050058653</v>
+        <v>23.5415312464727</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3290,7 +3416,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>23.55343320934303</v>
+        <v>23.51150481888553</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3301,7 +3427,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>23.52055427053709</v>
+        <v>23.46059761094163</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3312,7 +3438,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>23.48541628781707</v>
+        <v>23.45822153091211</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3323,7 +3449,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>23.45384404679447</v>
+        <v>23.35266485467218</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3334,7 +3460,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>23.42798479190811</v>
+        <v>23.34056285409221</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3345,7 +3471,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>23.32084948245543</v>
+        <v>23.27380995862276</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3356,7 +3482,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>23.25401354449994</v>
+        <v>23.24409634173628</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3367,7 +3493,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>23.11805645304526</v>
+        <v>23.22573743550903</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3378,7 +3504,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>23.03964520518078</v>
+        <v>23.21399454357119</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3389,7 +3515,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>22.94237561600836</v>
+        <v>23.1102021064061</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3400,7 +3526,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>22.93029874126471</v>
+        <v>23.09579318497094</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3411,7 +3537,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>22.80287037617852</v>
+        <v>22.9995407684795</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3422,7 +3548,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>22.67720891133073</v>
+        <v>22.99824131605808</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3433,7 +3559,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>22.47406795785554</v>
+        <v>22.96794316873671</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3444,7 +3570,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>22.4649105839684</v>
+        <v>22.92145631986325</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3455,7 +3581,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>22.3976723599724</v>
+        <v>22.86550483884488</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3466,7 +3592,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>22.38511993024011</v>
+        <v>22.85649218745978</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3477,7 +3603,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>22.20495661072989</v>
+        <v>22.85250798923474</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3488,7 +3614,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>22.09619936255471</v>
+        <v>22.85099415247915</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3499,10 +3625,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>21.99409410675411</v>
+        <v>22.85041757387329</v>
       </c>
       <c r="C202">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3510,10 +3636,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>21.98259236592141</v>
+        <v>22.84717705403308</v>
       </c>
       <c r="C203">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3521,10 +3647,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>21.92161858468044</v>
+        <v>22.8432700595727</v>
       </c>
       <c r="C204">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3532,10 +3658,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>21.9137035203049</v>
+        <v>22.84261892371171</v>
       </c>
       <c r="C205">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3543,10 +3669,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>21.9127547704254</v>
+        <v>22.83442022500094</v>
       </c>
       <c r="C206">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3554,10 +3680,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>21.74843590238389</v>
+        <v>22.83063523944166</v>
       </c>
       <c r="C207">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3565,10 +3691,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>21.62518724437356</v>
+        <v>22.82352516116753</v>
       </c>
       <c r="C208">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3576,10 +3702,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>21.51881684009401</v>
+        <v>22.8183863059282</v>
       </c>
       <c r="C209">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3587,10 +3713,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>21.32305320073396</v>
+        <v>22.81502929583957</v>
       </c>
       <c r="C210">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3598,10 +3724,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>20.69579982735512</v>
+        <v>22.81496914948317</v>
       </c>
       <c r="C211">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3609,10 +3735,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>20.53118409059655</v>
+        <v>22.74787406270613</v>
       </c>
       <c r="C212">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3620,10 +3746,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>20.18248556440849</v>
+        <v>22.74785599153585</v>
       </c>
       <c r="C213">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3631,10 +3757,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>20.17254969820996</v>
+        <v>22.72134465530723</v>
       </c>
       <c r="C214">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3642,10 +3768,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>19.87830680882359</v>
+        <v>22.67256419669695</v>
       </c>
       <c r="C215">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3653,10 +3779,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>19.84629534329939</v>
+        <v>22.66925816336915</v>
       </c>
       <c r="C216">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3664,10 +3790,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>19.77099779283145</v>
+        <v>22.64524567468287</v>
       </c>
       <c r="C217">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3675,10 +3801,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>19.54931049956825</v>
+        <v>22.62938798503319</v>
       </c>
       <c r="C218">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3686,10 +3812,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>19.11524257404791</v>
+        <v>22.61080567977238</v>
       </c>
       <c r="C219">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3697,10 +3823,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>19.10970042172493</v>
+        <v>22.59562045588157</v>
       </c>
       <c r="C220">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3708,10 +3834,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>19.06672432803633</v>
+        <v>22.5836735416866</v>
       </c>
       <c r="C221">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3719,10 +3845,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>19.01124567740154</v>
+        <v>22.57347295555649</v>
       </c>
       <c r="C222">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3730,10 +3856,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>18.92900164270409</v>
+        <v>22.57347295555649</v>
       </c>
       <c r="C223">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3741,10 +3867,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>18.784747250506</v>
+        <v>22.57285519724474</v>
       </c>
       <c r="C224">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3752,10 +3878,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>18.60546115851106</v>
+        <v>22.56806126029669</v>
       </c>
       <c r="C225">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3763,10 +3889,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>18.56339228499087</v>
+        <v>22.56656727232518</v>
       </c>
       <c r="C226">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3774,10 +3900,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>18.51490545383065</v>
+        <v>22.56652829484092</v>
       </c>
       <c r="C227">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3785,10 +3911,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>18.28983629641924</v>
+        <v>22.56581265552824</v>
       </c>
       <c r="C228">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3796,10 +3922,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>18.0315838497107</v>
+        <v>22.56420410262262</v>
       </c>
       <c r="C229">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3807,10 +3933,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>17.31337109525772</v>
+        <v>22.56238580230231</v>
       </c>
       <c r="C230">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3818,10 +3944,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>17.11363999620689</v>
+        <v>22.56238580230231</v>
       </c>
       <c r="C231">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3829,10 +3955,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>16.69204356289801</v>
+        <v>22.56131311521695</v>
       </c>
       <c r="C232">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3840,10 +3966,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>16.48850460980713</v>
+        <v>22.56063735562297</v>
       </c>
       <c r="C233">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3851,10 +3977,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>16.46089254499519</v>
+        <v>22.55562135896456</v>
       </c>
       <c r="C234">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3862,10 +3988,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>16.16431361491421</v>
+        <v>22.55458442752671</v>
       </c>
       <c r="C235">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3873,10 +3999,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>16.04526025966903</v>
+        <v>22.55357289625656</v>
       </c>
       <c r="C236">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3884,10 +4010,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>16.04213388748989</v>
+        <v>22.54911936329284</v>
       </c>
       <c r="C237">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3895,10 +4021,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>15.73347128325419</v>
+        <v>22.5479825690754</v>
       </c>
       <c r="C238">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3906,10 +4032,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>15.69087236136609</v>
+        <v>22.5479825690754</v>
       </c>
       <c r="C239">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3917,10 +4043,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>15.24101689773348</v>
+        <v>22.54722083785871</v>
       </c>
       <c r="C240">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3928,10 +4054,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>15.23123105724188</v>
+        <v>22.54722083785871</v>
       </c>
       <c r="C241">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3939,10 +4065,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>14.41294842036768</v>
+        <v>22.54581027193109</v>
       </c>
       <c r="C242">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3950,10 +4076,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>13.17090292715089</v>
+        <v>22.54496476303255</v>
       </c>
       <c r="C243">
-        <v>0.00036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3961,10 +4087,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>13.12258261803364</v>
+        <v>22.54496476303255</v>
       </c>
       <c r="C244">
-        <v>0.00037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3972,10 +4098,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>12.46676663824011</v>
+        <v>22.54490541144997</v>
       </c>
       <c r="C245">
-        <v>0.00052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3983,10 +4109,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>12.4453385475795</v>
+        <v>22.54490541144997</v>
       </c>
       <c r="C246">
-        <v>0.00052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3994,10 +4120,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>12.32438336348772</v>
+        <v>22.54390878349695</v>
       </c>
       <c r="C247">
-        <v>0.00056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4005,10 +4131,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>12.08807599367732</v>
+        <v>22.54261807040024</v>
       </c>
       <c r="C248">
-        <v>0.00063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4016,10 +4142,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>11.65744613503085</v>
+        <v>22.54261807040024</v>
       </c>
       <c r="C249">
-        <v>0.00078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4027,10 +4153,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>11.29679471987639</v>
+        <v>22.5319348709182</v>
       </c>
       <c r="C250">
-        <v>0.00094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4038,10 +4164,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>11.24424078872974</v>
+        <v>22.53184851498276</v>
       </c>
       <c r="C251">
-        <v>0.00096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4049,10 +4175,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>11.04763646908518</v>
+        <v>22.53146618897066</v>
       </c>
       <c r="C252">
-        <v>0.00106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4060,10 +4186,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>10.86257196326313</v>
+        <v>22.52973771639811</v>
       </c>
       <c r="C253">
-        <v>0.00117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4071,10 +4197,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>10.85711535723121</v>
+        <v>22.52973771639811</v>
       </c>
       <c r="C254">
-        <v>0.00117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4082,10 +4208,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>10.84291124646463</v>
+        <v>22.5297276835641</v>
       </c>
       <c r="C255">
-        <v>0.00118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4093,10 +4219,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>10.70063916553882</v>
+        <v>22.52953856182979</v>
       </c>
       <c r="C256">
-        <v>0.00127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4104,10 +4230,10 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>10.62536642531735</v>
+        <v>22.52953856182979</v>
       </c>
       <c r="C257">
-        <v>0.00132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4115,10 +4241,10 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>10.45806784503665</v>
+        <v>22.51848183659738</v>
       </c>
       <c r="C258">
-        <v>0.00144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4126,10 +4252,10 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>10.34732169073194</v>
+        <v>22.51837710154302</v>
       </c>
       <c r="C259">
-        <v>0.00152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4137,10 +4263,10 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>9.746456093313631</v>
+        <v>22.47342380912865</v>
       </c>
       <c r="C260">
-        <v>0.00207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4148,10 +4274,10 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>9.676166736871858</v>
+        <v>22.46239020217914</v>
       </c>
       <c r="C261">
-        <v>0.00215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4159,10 +4285,10 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>9.52236302135651</v>
+        <v>22.41379199126989</v>
       </c>
       <c r="C262">
-        <v>0.00233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4170,10 +4296,10 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>9.470115407497815</v>
+        <v>22.37326529795618</v>
       </c>
       <c r="C263">
-        <v>0.00239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4181,10 +4307,10 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>9.470115407497815</v>
+        <v>22.34483883048287</v>
       </c>
       <c r="C264">
-        <v>0.00239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4192,10 +4318,10 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>9.468454456437637</v>
+        <v>22.34243134813799</v>
       </c>
       <c r="C265">
-        <v>0.00239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4203,10 +4329,10 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>9.466670265630025</v>
+        <v>22.26776817950001</v>
       </c>
       <c r="C266">
-        <v>0.00239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4214,10 +4340,10 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>9.466670265630025</v>
+        <v>22.22947240199964</v>
       </c>
       <c r="C267">
-        <v>0.00239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4225,10 +4351,10 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>9.463266483941357</v>
+        <v>22.14983277424401</v>
       </c>
       <c r="C268">
-        <v>0.0024</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4236,10 +4362,10 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>9.463266483941357</v>
+        <v>22.08317752465522</v>
       </c>
       <c r="C269">
-        <v>0.0024</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4247,10 +4373,10 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>9.462794059990852</v>
+        <v>22.07225320430274</v>
       </c>
       <c r="C270">
-        <v>0.0024</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4258,10 +4384,10 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>9.462424499466215</v>
+        <v>22.06298231556502</v>
       </c>
       <c r="C271">
-        <v>0.0024</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4269,10 +4395,10 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>9.462424499466215</v>
+        <v>22.04698325866595</v>
       </c>
       <c r="C272">
-        <v>0.0024</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4280,10 +4406,10 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>9.457205791431866</v>
+        <v>22.03945244197953</v>
       </c>
       <c r="C273">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4291,10 +4417,10 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>9.457205791431866</v>
+        <v>22.01714440930628</v>
       </c>
       <c r="C274">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4302,10 +4428,10 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>9.456384822224837</v>
+        <v>22.00691361877261</v>
       </c>
       <c r="C275">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4313,10 +4439,10 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>9.456384822224837</v>
+        <v>21.98518711559372</v>
       </c>
       <c r="C276">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4324,10 +4450,10 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>9.455809736723619</v>
+        <v>21.86644349048352</v>
       </c>
       <c r="C277">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4335,10 +4461,10 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>9.455809736723619</v>
+        <v>21.84596009039197</v>
       </c>
       <c r="C278">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4346,10 +4472,10 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>9.453665654506574</v>
+        <v>21.8052181217051</v>
       </c>
       <c r="C279">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4357,10 +4483,10 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>9.453609354294652</v>
+        <v>21.68726058929414</v>
       </c>
       <c r="C280">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4368,10 +4494,10 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>9.453572284723039</v>
+        <v>21.6788153362393</v>
       </c>
       <c r="C281">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4379,10 +4505,10 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>9.452148569368639</v>
+        <v>21.56433285103831</v>
       </c>
       <c r="C282">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4390,10 +4516,10 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>9.452148569368639</v>
+        <v>21.47347226841278</v>
       </c>
       <c r="C283">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4401,10 +4527,10 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>9.452035236612433</v>
+        <v>21.40700609693575</v>
       </c>
       <c r="C284">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4412,10 +4538,10 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>9.45183668569863</v>
+        <v>21.22719705468899</v>
       </c>
       <c r="C285">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4423,10 +4549,10 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>9.45183668569863</v>
+        <v>21.10258322317839</v>
       </c>
       <c r="C286">
-        <v>0.00241</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4434,10 +4560,10 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>9.36025571114183</v>
+        <v>21.06514300251251</v>
       </c>
       <c r="C287">
-        <v>0.00253</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4445,10 +4571,10 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>9.05879521128508</v>
+        <v>20.98379702613903</v>
       </c>
       <c r="C288">
-        <v>0.00296</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4456,10 +4582,10 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>8.967807131784026</v>
+        <v>20.91404934929475</v>
       </c>
       <c r="C289">
-        <v>0.00311</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4467,10 +4593,10 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>8.762610988569765</v>
+        <v>20.86758219649484</v>
       </c>
       <c r="C290">
-        <v>0.00346</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4478,10 +4604,10 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>8.703657352016561</v>
+        <v>20.63995577254003</v>
       </c>
       <c r="C291">
-        <v>0.00357</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4489,10 +4615,10 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>8.627060017354323</v>
+        <v>20.63766371438959</v>
       </c>
       <c r="C292">
-        <v>0.00371</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4500,10 +4626,10 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>8.459450322382553</v>
+        <v>20.50776664166024</v>
       </c>
       <c r="C293">
-        <v>0.00406</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4511,10 +4637,10 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>7.791771109595811</v>
+        <v>20.48548313186732</v>
       </c>
       <c r="C294">
-        <v>0.00577</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4522,10 +4648,10 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>7.642091271571834</v>
+        <v>20.45733705713671</v>
       </c>
       <c r="C295">
-        <v>0.00625</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4533,10 +4659,10 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>7.633775860355622</v>
+        <v>20.31549892665188</v>
       </c>
       <c r="C296">
-        <v>0.00628</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4544,10 +4670,10 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>7.383717640376465</v>
+        <v>19.9828389159062</v>
       </c>
       <c r="C297">
-        <v>0.00718</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4555,10 +4681,10 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>7.20759153158038</v>
+        <v>19.96117682536643</v>
       </c>
       <c r="C298">
-        <v>0.007889999999999999</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4566,10 +4692,10 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>7.020986708621292</v>
+        <v>19.91371210136236</v>
       </c>
       <c r="C299">
-        <v>0.00872</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4577,10 +4703,10 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>6.971341901717381</v>
+        <v>19.20995965173614</v>
       </c>
       <c r="C300">
-        <v>0.008959999999999999</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4588,10 +4714,10 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>6.971341901717381</v>
+        <v>18.6373381342211</v>
       </c>
       <c r="C301">
-        <v>0.008959999999999999</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4599,10 +4725,472 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>6.890521575709279</v>
+        <v>18.24578977484172</v>
       </c>
       <c r="C302">
-        <v>0.00936</v>
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>18.17216689600179</v>
+      </c>
+      <c r="C303">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>17.88604538394214</v>
+      </c>
+      <c r="C304">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>17.87334926642173</v>
+      </c>
+      <c r="C305">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>17.7900697695657</v>
+      </c>
+      <c r="C306">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>17.71800772535471</v>
+      </c>
+      <c r="C307">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>17.3755139177552</v>
+      </c>
+      <c r="C308">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>15.56383878978639</v>
+      </c>
+      <c r="C309">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>15.17683158972641</v>
+      </c>
+      <c r="C310">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>14.55894593508816</v>
+      </c>
+      <c r="C311">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>14.1447187818275</v>
+      </c>
+      <c r="C312">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>13.96066459211291</v>
+      </c>
+      <c r="C313">
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>13.81118293275235</v>
+      </c>
+      <c r="C314">
+        <v>0.00027</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>13.78866005865526</v>
+      </c>
+      <c r="C315">
+        <v>0.00027</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>13.77475136641257</v>
+      </c>
+      <c r="C316">
+        <v>0.00027</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>13.75867445939928</v>
+      </c>
+      <c r="C317">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>13.75738487526525</v>
+      </c>
+      <c r="C318">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>13.751247215736</v>
+      </c>
+      <c r="C319">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>13.69828916868928</v>
+      </c>
+      <c r="C320">
+        <v>0.00029</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>13.58332479625069</v>
+      </c>
+      <c r="C321">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>13.37870374510719</v>
+      </c>
+      <c r="C322">
+        <v>0.00033</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>13.3448164881589</v>
+      </c>
+      <c r="C323">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>13.05671796912871</v>
+      </c>
+      <c r="C324">
+        <v>0.00039</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>12.60595107517667</v>
+      </c>
+      <c r="C325">
+        <v>0.00049</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>12.27175574940631</v>
+      </c>
+      <c r="C326">
+        <v>0.00058</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>12.27175574940631</v>
+      </c>
+      <c r="C327">
+        <v>0.00058</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>11.65897104618835</v>
+      </c>
+      <c r="C328">
+        <v>0.00079</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>11.60834761972978</v>
+      </c>
+      <c r="C329">
+        <v>0.00081</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>11.60834761972978</v>
+      </c>
+      <c r="C330">
+        <v>0.00081</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>11.45962382817852</v>
+      </c>
+      <c r="C331">
+        <v>0.00087</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>10.90901439969661</v>
+      </c>
+      <c r="C332">
+        <v>0.00115</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>10.64733395762008</v>
+      </c>
+      <c r="C333">
+        <v>0.00132</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>10.56106749970229</v>
+      </c>
+      <c r="C334">
+        <v>0.00138</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>10.02354298530413</v>
+      </c>
+      <c r="C335">
+        <v>0.00182</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>9.586679934703529</v>
+      </c>
+      <c r="C336">
+        <v>0.00227</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>9.576683403869898</v>
+      </c>
+      <c r="C337">
+        <v>0.00229</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>9.330384354698648</v>
+      </c>
+      <c r="C338">
+        <v>0.0026</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>9.177485545799721</v>
+      </c>
+      <c r="C339">
+        <v>0.00281</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>8.601462539084944</v>
+      </c>
+      <c r="C340">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>8.172494034106832</v>
+      </c>
+      <c r="C341">
+        <v>0.00476</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>7.094052112385583</v>
+      </c>
+      <c r="C342">
+        <v>0.00844</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>7.036914639536335</v>
+      </c>
+      <c r="C343">
+        <v>0.008699999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>6.944339702866973</v>
+      </c>
+      <c r="C344">
+        <v>0.009140000000000001</v>
       </c>
     </row>
   </sheetData>
